--- a/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_263.xlsx
+++ b/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_263.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,45 +436,50 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>similarity_range</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>track_1</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>track_2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>sim_val</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_1</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link_track_1</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>link_track_2</t>
         </is>
@@ -483,351 +488,404 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_118</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_0</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0.07334525939177103</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[['C:maj/G', 'G:7', 'C:maj']]</t>
-        </is>
+          <t>schubert-winterreise_132</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>jaah_73</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.02647828362114077</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['D:maj/F#', 'A:7', 'D:maj']]</t>
+          <t>[['F:maj', 'C:7/A#', 'F:maj/A'], ['G:min7/A#', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[(31.74, 33.88)]</t>
+          <t>[['Bb', 'F:7', 'Bb'], ['C:min7', 'F:7', 'Bb']]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(34.86, 39.7)]</t>
+          <t>[('0:01:14.900000', '0:01:26.120000'), ('0:01:11.100000', '0:01:18.700000')]</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+          <t>[('0:00:19.130000', '0:00:20.830000'), ('0:00:09.660000', '0:00:10.950000')]</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>isophonics_99</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>isophonics_34</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0.07010869565217391</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[['F#:min', 'B', 'E']]</t>
-        </is>
+          <t>jaah_1</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_156</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.1669565217391304</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['F:min', 'Bb', 'Eb']]</t>
+          <t>[['Eb', 'Bb:7', 'Eb', 'Eb'], ['Eb', 'Eb', 'Bb:7', 'Eb']]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[(16.376439, 18.860975)]</t>
+          <t>[['F#:maj/A#', 'C#:7', 'F#:maj', 'F#:maj/A#'], ['F#:maj', 'F#:maj/A#', 'C#:7', 'F#:maj']]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(36.060612, 43.363287)]</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr"/>
+          <t>[('0:00:04.830000', '0:00:12.970000'), ('0:00:02.770000', '0:00:10.940000')]</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>[('0:00:20.200000', '0:00:24.060000'), ('0:00:22.180000', '0:00:25.400000')]</t>
+        </is>
+      </c>
       <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>isophonics_8</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>isophonics_165</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0.1274509803921569</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[['A', 'B', 'E']]</t>
-        </is>
+          <t>isophonics_53</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>isophonics_32</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.2976190476190476</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[['D', 'E', 'A']]</t>
+          <t>[['A', 'E', 'A']]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[(50.046698, 55.352457)]</t>
+          <t>[['D/5', 'A', 'D']]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(22.518117, 27.754217)]</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr"/>
+          <t>[('0:00:04.605000', '0:00:13.840000')]</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>[('0:02:04.702789', '0:02:10.612267')]</t>
+        </is>
+      </c>
       <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>spotify:track:0qHMhBZqYb99yhX9BHcIkV</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_158</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_121</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0.1083333333333333</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>[['D:min', 'A:maj', 'D:min']]</t>
-        </is>
+          <t>isophonics_46</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>isophonics_179</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.1769041769041769</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['C:min/G', 'G', 'C:min']]</t>
+          <t>[['G', 'D', 'C']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[(10.26, 15.94)]</t>
+          <t>[['Eb/2', 'Bb', 'Ab']]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(15.06, 20.56)]</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr"/>
+          <t>[('0:00:34.169705', '0:00:37.385668')]</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>[('0:01:09.782000', '0:01:15.339000')]</t>
+        </is>
+      </c>
       <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>isophonics_12</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>isophonics_147</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0.2176470588235294</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[['G', 'A', 'D', 'D']]</t>
-        </is>
+          <t>isophonics_261</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_151</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.39375</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['A', 'B', 'E', 'E']]</t>
+          <t>[['G/3', 'C', 'G']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[(9.979342, 16.701519)]</t>
+          <t>[['C:maj/G', 'F:maj', 'C:maj/G']]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(12.971, 23.861)]</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr"/>
-      <c r="I6" t="inlineStr"/>
+          <t>[('0:00:13.079206', '0:00:17.500916')]</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>[('0:01:57.540000', '0:02:01.800000')]</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>spotify:track:2B4Y9u4ERAFiMo13XPJyGP</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_67</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_138</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0.2363636363636364</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>[['B:min', 'F#:7/C#', 'B:min/D']]</t>
-        </is>
+          <t>schubert-winterreise_65</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_54</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0.2528735632183908</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['A:min', 'E:7', 'A:min']]</t>
+          <t>[['D#:min', 'A#:7', 'D#:min', 'A#:maj', 'D#:min']]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[(0.3, 2.82)]</t>
+          <t>[['G:min', 'D:7/G', 'G:min', 'D:maj/G', 'G:min']]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(18.0, 26.46)]</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr"/>
+          <t>[('0:00:12.320000', '0:00:19.900000')]</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>[('0:00:22.320000', '0:00:49.780000')]</t>
+        </is>
+      </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_129</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>isophonics_265</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0.2871794871794872</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>[['A#:maj', 'F:maj', 'A#:maj', 'F:maj']]</t>
-        </is>
+          <t>schubert-winterreise_112</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_17</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0.5333333333333333</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['D', 'A', 'D', 'A']]</t>
+          <t>[['D#:maj', 'G#:maj', 'D#:maj', 'G#:maj']]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[(107.64, 108.84)]</t>
+          <t>[['D:maj/A', 'G:maj', 'D:maj/A', 'G:maj/B']]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(102.174263, 115.003287)]</t>
+          <t>[('0:01:58.400000', '0:02:02.040000')]</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
+          <t>[('0:02:18.020000', '0:02:23.320000')]</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
           <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
         </is>
       </c>
-      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>isophonics_280</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_187</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0.06911764705882353</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>[['E', 'B:7', 'E']]</t>
-        </is>
+          <t>isophonics_96</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>isophonics_108</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0.3645833333333334</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[['C/G', 'G:7', 'C']]</t>
+          <t>[['G:maj', 'D:maj', 'A:maj', 'D:maj', 'G:maj', 'D:maj', 'A:maj']]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[(61.683832, 65.956303)]</t>
+          <t>[['D', 'A', 'E', 'A', 'D', 'A', 'E']]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(236.4, 239.98)]</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr"/>
+          <t>[('0:01:49.306000', '0:02:07.327000')]</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>[('0:00:17.282018', '0:00:38.052267')]</t>
+        </is>
+      </c>
       <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_199</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_186</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>0.3142857142857143</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>[['G:maj/D', 'D:7', 'G:maj'], ['G:maj/B', 'C:maj', 'G:maj/D']]</t>
-        </is>
+          <t>schubert-winterreise_196</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_74</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0.5333333333333333</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['F:maj', 'C:7', 'F:maj'], ['F:maj', 'A#:maj', 'F:maj']]</t>
+          <t>[['D:7', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[(63.84, 65.24), (62.2, 64.4)]</t>
+          <t>[['C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(43.34, 59.34), (118.44, 121.68)]</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr"/>
-      <c r="I10" t="inlineStr">
+          <t>[('0:00:35.460000', '0:00:50.440000')]</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>[('0:02:02.780000', '0:02:05')]</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr">
         <is>
           <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
         </is>
@@ -836,269 +894,266 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>isophonics_282</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>isophonics_51</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>0.1625</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>[['Eb', 'F', 'Bb']]</t>
-        </is>
+          <t>schubert-winterreise_199</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>isophonics_109</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0.7142857142857143</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['F', 'G', 'C']]</t>
+          <t>[['G:maj/B', 'C:maj', 'G:maj/D']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[(44.917324, 48.272607)]</t>
+          <t>[['A', 'D', 'A']]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(25.687641, 32.084739)]</t>
+          <t>[('0:01:02.200000', '0:01:04.400000')]</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>spotify:track:3Am0IbOxmvlSXro7N5iSfZ</t>
+          <t>[('0:01:34.925000', '0:01:40.821000')]</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>isophonics_287</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_153</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>0.2611607142857143</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>[['A/3', 'D', 'A']]</t>
-        </is>
+          <t>isophonics_298</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_65</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>0.475</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['G:maj/B', 'C:maj', 'G:maj/D']]</t>
+          <t>[['G', 'C', 'G']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[(65.81034, 71.679931)]</t>
+          <t>[['D#:maj', 'G#:maj', 'D#:maj']]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(58.4, 60.68)]</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr"/>
+          <t>[('0:00:00.344657', '0:00:11.337709')]</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>[('0:02:07.600000', '0:02:12.400000')]</t>
+        </is>
+      </c>
       <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_126</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_80</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>0.3028846153846154</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>[['D:min', 'A:maj', 'D:min']]</t>
-        </is>
+          <t>schubert-winterreise_72</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_13</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>1</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:maj', 'D:min']]</t>
+          <t>[['C:maj', 'G:7', 'C:maj', 'G:7', 'C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj', 'F:7', 'A#:maj', 'D:7/A', 'G#:(3,5)', 'C:maj', 'A:(3,5,b7,b9)', 'D:min/G', 'F:maj/G', 'G:7', 'C:maj', 'C:min']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[(87.66, 96.72)]</t>
+          <t>[['B:maj', 'F#:7', 'B:maj', 'F#:7', 'B:maj', 'F#:maj', 'B:maj', 'F#:maj', 'B:maj', 'F#:maj', 'B:maj', 'F#:maj', 'B:maj', 'E:7', 'A:maj', 'C#:7/G#', 'G:(3,5)', 'B:maj', 'G#:(3,5,b7,b9)', 'C#:min/F#', 'E:maj/F#', 'F#:7', 'B:maj', 'B:min']]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(2.64, 7.3)]</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr"/>
+          <t>[('0:00:00.380000', '0:00:31.160000')]</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>[('0:00:00.320000', '0:00:40.640000')]</t>
+        </is>
+      </c>
       <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>isophonics_1</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>isophonics_50</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>0.1634615384615385</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>[['Ab/5', 'Eb', 'Ab/5'], ['Eb', 'Ab/5', 'Eb']]</t>
-        </is>
+          <t>schubert-winterreise_30</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_202</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>0.7142857142857143</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['C', 'G', 'C'], ['G', 'C', 'G']]</t>
+          <t>[['A#:maj', 'F:(3,5,b7,b9)', 'A#:maj']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[(18.978, 24.727), (17.016, 22.841)]</t>
+          <t>[['C#:maj/G#', 'G#:(3,5,b7,b9)', 'C#:maj']]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(58.300068, 63.443287), (37.936167, 42.951678)]</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr"/>
+          <t>[('0:00:24.260000', '0:00:27.200000')]</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>[('0:00:58.060000', '0:01:00.620000')]</t>
+        </is>
+      </c>
       <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>isophonics_140</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>isophonics_124</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>0.1666666666666667</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>[['C', 'G', 'D'], ['G', 'D', 'C'], ['G', 'C', 'G']]</t>
-        </is>
+          <t>schubert-winterreise_11</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_4</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['Bb', 'F', 'C'], ['F', 'C', 'Bb'], ['F', 'Bb', 'F']]</t>
+          <t>[['G:maj', 'C:maj', 'D:9/F#', 'G:maj', 'A:7/E', 'D:min', 'G:(3,5,b7,b9)', 'C:maj', 'F:maj', 'C:maj/E', 'G:min/D', 'A:maj/C#', 'A#:maj/D', 'C:7/E', 'F:maj', 'D:min7/F', 'D:(3,5,b7,b9)/F#', 'G:maj']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[(59.224321, 65.737518), (54.32491, 60.861327), (0.465952, 5.272756)]</t>
+          <t>[['A:maj', 'D:maj', 'E:9/G#', 'A:maj', 'B:7/F#', 'E:min', 'A:(3,5,b7,b9)', 'D:maj', 'G:maj', 'D:maj/F#', 'A:min/E', 'B:maj/D#', 'C:maj/E', 'D:7/F#', 'G:maj', 'E:min7/G', 'E:(3,5,b7,b9)/G#', 'A:maj']]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(16.749659, 21.811609), (5.139682, 11.699319), (15.124263, 20.058503)]</t>
+          <t>[('0:01:01.140000', '0:01:23.520000')]</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>spotify:track:3VbGCXWRiouAq8VyMYN2MI</t>
+          <t>[('0:00:58.080000', '0:01:19.120000')]</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_53</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>isophonics_89</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>0.2316176470588235</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>[['E:maj/G#', 'A:maj', 'E:maj']]</t>
-        </is>
+          <t>schubert-winterreise_5</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_176</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['F#', 'B', 'F#']]</t>
+          <t>[['A:min', 'B:hdim7/D', 'E:7', 'A:min', 'A:min', 'B:hdim7/D', 'E:7', 'A:min', 'G#:dim7', 'A:min', 'G#:dim7', 'E:maj/B', 'A:min/C', 'G:maj/B', 'F:maj/A', 'C:maj/G', 'F:maj', 'C:maj/G', 'G:7', 'C:maj', 'F:maj/A', 'E:min/B', 'B:7', 'E:min', 'D#:dim7/F#', 'E:min/G', 'E:(3,5,b7,b9)/G#', 'A:min', 'A:(3,5,b7,b9)', 'D:min', 'A:min/E', 'E:(3,5,b7,b9)', 'G#:dim7', 'B:hdim7/D', 'G#:dim7', 'B:hdim7/D', 'E:(3,5,b7,b9)', 'A:min', 'A:(3,5,b7,b9)/C#', 'D:min', 'A:min/E', 'E:(3,5,b7,b9)', 'A:min']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[(55.68, 62.28)]</t>
+          <t>[['A:min', 'B:hdim7/D', 'E:7', 'A:min', 'A:min', 'B:hdim7/D', 'E:7', 'A:min', 'G#:dim7', 'A:min', 'G#:dim7', 'E:maj/B', 'A:min/C', 'G:maj/B', 'F:maj/A', 'C:maj/G', 'F:maj', 'C:maj/G', 'G:7', 'C:maj', 'F:maj/A', 'E:min/B', 'B:7', 'E:min', 'D#:dim7/F#', 'E:min/G', 'E:(3,5,b7,b9)/G#', 'A:min', 'A:(3,5,b7,b9)', 'D:min', 'A:min/E', 'E:(3,5,b7,b9)', 'G#:dim7', 'B:hdim7/D', 'G#:dim7', 'B:hdim7/D', 'E:(3,5,b7,b9)', 'A:min', 'A:(3,5,b7,b9)/C#', 'D:min', 'A:min/E', 'E:(3,5,b7,b9)', 'A:min']]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(15.880484, 21.522933)]</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr"/>
-      <c r="I16" t="inlineStr"/>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_27</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_136</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>0.3809523809523809</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>[['C:maj', 'G:maj/D', 'D:7', 'G:maj']]</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>[['A#:maj/D', 'F:maj/C', 'C:7', 'F:maj']]</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>[(63.38, 65.72)]</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>[(77.68, 86.54)]</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr"/>
-      <c r="I17" t="inlineStr"/>
+          <t>[('0:00:10.940000', '0:01:05.780000')]</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>[('0:00:10.100000', '0:01:03.440000')]</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
